--- a/python_class/test/文件信息.xlsx
+++ b/python_class/test/文件信息.xlsx
@@ -466,11 +466,6 @@
           <t>大小</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
           <t>类型</t>
@@ -507,7 +502,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2014217226  实验报告 王五.docx</t>
+          <t>2013211216 实验报告 .xlsx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -517,7 +512,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.507KB</t>
+          <t>8.502KB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,24 +522,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>docx</t>
+          <t>xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2012211216  _请假条 - 副本.jpg</t>
+          <t>2012211216 文件备份记录 - 副本.txt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/1</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>797B</t>
+          <t>4.360KB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -554,14 +549,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>jpg</t>
+          <t>txt</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Python3 正则表达式.jpg</t>
+          <t>2012211216 _请假条 - 副本.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -571,7 +566,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>81.84KB</t>
+          <t>797B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -588,7 +583,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Python3 面向对象.jpg</t>
+          <t>Python3 正则表达式.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -598,7 +593,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>103.7KB</t>
+          <t>81.84KB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -615,17 +610,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录.txt</t>
+          <t>Python3 面向对象.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.360KB</t>
+          <t>103.7KB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -635,24 +630,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>txt</t>
+          <t>jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2012211216  _请假条.jpg</t>
+          <t>2014217226 实验报告 王五.docx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>797B</t>
+          <t>8.507KB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -662,46 +657,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>jpg</t>
+          <t>docx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2014217216  实验报告 张三.xlsx</t>
+          <t>2012211216 _请假条.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.172KB</t>
+          <t>797B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>xlsx</t>
+          <t>jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录 - 副本.txt</t>
+          <t>2012211216 文件备份记录.txt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -723,22 +718,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2012211998  实验报告.xlsx</t>
+          <t>2014217216 实验报告 张三.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/2</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.541KB</t>
+          <t>5.172KB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -750,7 +745,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2012217996  文件记录.doc</t>
+          <t>2012211998  实验报告.xlsx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -760,7 +755,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.854KB</t>
+          <t>8.541KB</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,24 +765,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>doc</t>
+          <t>xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2013211216  实验报告 .xlsx</t>
+          <t>2012217996  文件记录.doc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.502KB</t>
+          <t>4.854KB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -797,7 +792,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>xlsx</t>
+          <t>doc</t>
         </is>
       </c>
     </row>
@@ -863,7 +858,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2014217226  实验报告 王五.docx</t>
+          <t>2013211216 实验报告 .xlsx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -873,7 +868,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.507KB</t>
+          <t>8.502KB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -888,19 +883,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>docx</t>
+          <t>xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录.txt</t>
+          <t>2012211216 文件备份记录 - 副本.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -927,7 +922,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2014217216  实验报告 张三.xlsx</t>
+          <t>2014217226 实验报告 王五.docx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -937,12 +932,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.172KB</t>
+          <t>8.507KB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -952,19 +947,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xlsx</t>
+          <t>docx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录 - 副本.txt</t>
+          <t>2012211216 文件备份记录.txt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -991,22 +986,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2012211998  实验报告.xlsx</t>
+          <t>2014217216 实验报告 张三.xlsx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/2</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.541KB</t>
+          <t>5.172KB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1023,7 +1018,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2012217996  文件记录.doc</t>
+          <t>2012211998  实验报告.xlsx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1033,7 +1028,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.854KB</t>
+          <t>8.541KB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1048,24 +1043,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>doc</t>
+          <t>xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2013211216  实验报告 .xlsx</t>
+          <t>2012217996  文件记录.doc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.502KB</t>
+          <t>4.854KB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1080,7 +1075,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xlsx</t>
+          <t>doc</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1135,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2014217226  实验报告 王五.docx</t>
+          <t>2013211216 实验报告 .xlsx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1150,7 +1145,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.507KB</t>
+          <t>8.502KB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1160,24 +1155,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>docx</t>
+          <t>xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012211216  _请假条 - 副本.jpg</t>
+          <t>2012211216 文件备份记录 - 副本.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/1</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>797B</t>
+          <t>4.360KB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1187,24 +1182,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>jpg</t>
+          <t>txt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录.txt</t>
+          <t>2012211216 _请假条 - 副本.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.360KB</t>
+          <t>797B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1214,24 +1209,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>txt</t>
+          <t>jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2012211216  _请假条.jpg</t>
+          <t>2014217226 实验报告 王五.docx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>797B</t>
+          <t>8.507KB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1241,46 +1236,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>jpg</t>
+          <t>docx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2014217216  实验报告 张三.xlsx</t>
+          <t>2012211216 _请假条.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.172KB</t>
+          <t>797B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>xlsx</t>
+          <t>jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录 - 副本.txt</t>
+          <t>2012211216 文件备份记录.txt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/待删除文件</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1302,22 +1297,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2012211998  实验报告.xlsx</t>
+          <t>2014217216 实验报告 张三.xlsx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/2</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.541KB</t>
+          <t>5.172KB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1329,7 +1324,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2012217996  文件记录.doc</t>
+          <t>2012211998  实验报告.xlsx</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1339,7 +1334,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.854KB</t>
+          <t>8.541KB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1349,24 +1344,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>doc</t>
+          <t>xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2013211216  实验报告 .xlsx</t>
+          <t>2012217996  文件记录.doc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）</t>
+          <t>/Users/yong/Desktop/python_class/test/上机3测试用（运行前）/2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8.502KB</t>
+          <t>4.854KB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1376,7 +1371,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>xlsx</t>
+          <t>doc</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2012211216  文件备份记录.txt</t>
+          <t>2012211216 _请假条.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1446,7 +1441,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.360KB</t>
+          <t>797B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1456,14 +1451,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>txt</t>
+          <t>jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012211216  _请假条.jpg</t>
+          <t>2012211216 文件备份记录.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1473,7 +1468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>797B</t>
+          <t>4.360KB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1483,7 +1478,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>jpg</t>
+          <t>txt</t>
         </is>
       </c>
     </row>

--- a/python_class/test/文件信息.xlsx
+++ b/python_class/test/文件信息.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="文件信息" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,15 +48,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -443,11 +443,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="35"/>
-    <col customWidth="1" max="2" min="2" width="74"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="8"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="74" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -797,7 +797,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -815,12 +815,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="35"/>
-    <col customWidth="1" max="2" min="2" width="74"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="8"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="74" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -878,7 +878,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1098,11 +1098,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="35"/>
-    <col customWidth="1" max="2" min="2" width="74"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="8"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="74" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1376,7 +1376,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1394,11 +1394,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="35"/>
-    <col customWidth="1" max="2" min="2" width="74"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="8"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="74" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1483,6 +1483,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>